--- a/data/trans_dic/iP30B6_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B6_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,46; 22,89</t>
+          <t>0,0; 40,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,09; 20,93</t>
+          <t>8,75; 45,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,92; 20,5</t>
+          <t>8,52; 33,05</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>16,98%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,82; 25,04</t>
+          <t>13,46; 22,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,01; 31,19</t>
+          <t>12,09; 20,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,54; 26,18</t>
+          <t>13,92; 20,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>16,7%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,26</t>
+          <t>14,92; 26,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 45,81</t>
+          <t>9,4; 19,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,52; 33,05</t>
+          <t>12,98; 20,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>22,36%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,92; 26,05</t>
+          <t>13,82; 25,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,4; 19,53</t>
+          <t>20,01; 31,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,98; 20,58</t>
+          <t>18,54; 26,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B6_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B6_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,93; 26,81</t>
+          <t>11,46; 27,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 27,65</t>
+          <t>11,59; 26,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 24,22</t>
+          <t>13,36; 23,62</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,46; 22,89</t>
+          <t>13,53; 22,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 20,93</t>
+          <t>11,8; 20,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,92; 20,5</t>
+          <t>13,8; 20,74</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,92; 26,05</t>
+          <t>14,91; 25,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 19,53</t>
+          <t>9,21; 19,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,98; 20,58</t>
+          <t>13,0; 20,72</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 25,04</t>
+          <t>14,18; 25,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,01; 31,19</t>
+          <t>19,82; 31,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,54; 26,18</t>
+          <t>18,33; 26,49</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,17; 21,71</t>
+          <t>16,0; 21,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,19</t>
+          <t>15,49; 21,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,57; 20,55</t>
+          <t>16,46; 20,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B6_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B6_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,26</t>
+          <t>0,0; 34,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,75; 45,81</t>
+          <t>9,58; 47,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 33,05</t>
+          <t>8,45; 33,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,46; 27,08</t>
+          <t>11,94; 27,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,59; 26,11</t>
+          <t>11,38; 26,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 23,62</t>
+          <t>13,01; 24,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,53; 22,92</t>
+          <t>13,35; 23,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,8; 20,98</t>
+          <t>12,09; 21,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,8; 20,74</t>
+          <t>13,79; 20,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,91; 25,7</t>
+          <t>14,7; 25,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,21; 19,48</t>
+          <t>8,65; 19,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,0; 20,72</t>
+          <t>13,41; 20,68</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,18; 25,16</t>
+          <t>15,02; 25,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,82; 31,69</t>
+          <t>19,87; 31,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,33; 26,49</t>
+          <t>18,52; 26,54</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,0; 21,35</t>
+          <t>16,22; 21,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,49; 21,33</t>
+          <t>15,65; 21,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,46; 20,44</t>
+          <t>16,52; 20,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B6_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B6_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,09</t>
+          <t>11,83; 24,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,58; 47,66</t>
+          <t>12,75; 31,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 33,63</t>
+          <t>13,5; 24,93</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>17,05%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,94; 27,09</t>
+          <t>12,11; 21,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 26,68</t>
+          <t>13,34; 23,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,01; 24,16</t>
+          <t>14,0; 20,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>15,93%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 23,15</t>
+          <t>7,19; 18,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 21,33</t>
+          <t>14,83; 26,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,79; 20,78</t>
+          <t>11,55; 19,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>22,26%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,7; 25,72</t>
+          <t>19,78; 30,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,65; 19,39</t>
+          <t>14,34; 25,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 20,68</t>
+          <t>18,55; 26,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,02; 25,39</t>
+          <t>14,12; 20,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,87; 31,33</t>
+          <t>16,35; 22,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,52; 26,54</t>
+          <t>16,18; 20,48</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>18,6%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>18,3%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>16,22; 21,97</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>15,65; 21,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>16,52; 20,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
